--- a/CyberRouterATE/bin/Debug/testCondition/DutWebScript/EA7300_WebGuiScript_.xlsx
+++ b/CyberRouterATE/bin/Debug/testCondition/DutWebScript/EA7300_WebGuiScript_.xlsx
@@ -1566,7 +1566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
